--- a/reports/test_company_report.xlsx
+++ b/reports/test_company_report.xlsx
@@ -30,7 +30,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -41,12 +41,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00366092"/>
         <bgColor rgb="00366092"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -86,9 +80,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -456,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,12 +553,12 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Company functionality verified</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>PASSED</t>
+          <t>Test not executed</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Not Run</t>
         </is>
       </c>
     </row>
@@ -584,7 +575,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Verify successful company creation with all mandatory fields.</t>
+          <t>Verify all mandatory field validation errors are displayed when form is submitted empty.</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -611,12 +602,12 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Test failed - actual behavior did not match expected result</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>FAILED</t>
+          <t>Test not executed</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>Not Run</t>
         </is>
       </c>
     </row>
@@ -633,7 +624,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Verify duplicate company name validation error message.</t>
+          <t>Verify company name minimum length validation error message.</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -660,12 +651,12 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>Test failed - actual behavior did not match expected result</t>
-        </is>
-      </c>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>FAILED</t>
+          <t>Test not executed</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>Not Run</t>
         </is>
       </c>
     </row>
@@ -682,7 +673,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Verify company name required validation error message.</t>
+          <t>Verify company name maximum length validation error message.</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -731,7 +722,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Verify company name minimum length validation error message.</t>
+          <t>Verify company name special character validation error message.</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -780,7 +771,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Verify company name maximum length validation error message.</t>
+          <t>Verify file upload size validation error.</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -829,7 +820,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Verify company name special character validation error message.</t>
+          <t>Verify file type upload validation error.</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -878,7 +869,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Verify industry required validation error message.</t>
+          <t>Verify company creation with all optional fields including image upload.</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -927,7 +918,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Verify company creation with all optional fields.</t>
+          <t>Verify successful company creation with all mandatory fields.</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -976,7 +967,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Verify editing company information.</t>
+          <t>Verify duplicate company name validation using the company created in TC_09.</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -1025,7 +1016,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Verify file upload size validation error.</t>
+          <t>Verify navigation to company details page via clicking first company.</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -1074,7 +1065,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Verify file upload type validation error.</t>
+          <t>Verify deletion of company created in TC_09.</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -1123,7 +1114,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Verify creating client under company with all mandatory fields.</t>
+          <t>Verify bulk deletion of few individual companies (3-5) using individual checkboxes.</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -1150,159 +1141,12 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="80" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>TC_014</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Verify website field required validation error message.</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>User is on the company page</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>Company test data</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>1. Navigate to company page
-2. Perform required actions
-3. Verify expected behavior</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>Company functionality should work as expected</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="80" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>TC_015</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Verify owner field required validation error message.</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>User is on the company page</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>Company test data</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>1. Navigate to company page
-2. Perform required actions
-3. Verify expected behavior</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>Company functionality should work as expected</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="80" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>TC_016</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>Verify address field required validation error message.</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>User is on the company page</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>Company test data</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>1. Navigate to company page
-2. Perform required actions
-3. Verify expected behavior</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>Company functionality should work as expected</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Test failed - actual behavior did not match expected result</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
